--- a/PM_R_code/output/Table_S1_formatted.xlsx
+++ b/PM_R_code/output/Table_S1_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocutler/Dropbox/All_analysis_sharing_PM_21/PM_R_code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2B71BE-0644-CC49-9F0A-A06EBE424848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7480DB6D-60F6-174D-9D44-95B4258585C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="10400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="10000" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Giving_sum_model_results" sheetId="1" r:id="rId1"/>
@@ -700,19 +700,19 @@
             <v>(Intercept)</v>
           </cell>
           <cell r="B2">
-            <v>1.38293307945097</v>
+            <v>4.2332124013471804</v>
           </cell>
           <cell r="C2">
-            <v>0.364572726052799</v>
+            <v>1.1183207635851999</v>
           </cell>
           <cell r="E2">
-            <v>0.82490703802957799</v>
+            <v>2.5223276679045301</v>
           </cell>
           <cell r="F2">
-            <v>2.3184477935938701</v>
+            <v>7.1045833826209304</v>
           </cell>
           <cell r="G2">
-            <v>1.22981256568009</v>
+            <v>5.4620831357177604</v>
           </cell>
         </row>
         <row r="3">
@@ -720,22 +720,22 @@
             <v>Recipient (Self vs. Other)</v>
           </cell>
           <cell r="B3">
-            <v>9.3699985150734406</v>
+            <v>3.0610271345386302</v>
           </cell>
           <cell r="C3">
-            <v>0.87640257657960097</v>
+            <v>0.14315586511134701</v>
           </cell>
           <cell r="E3">
-            <v>7.8005320197147698</v>
+            <v>2.7929220312116101</v>
           </cell>
           <cell r="F3">
-            <v>11.2552415592403</v>
+            <v>3.3548688483498301</v>
           </cell>
           <cell r="G3">
-            <v>23.922217328730401</v>
+            <v>23.921658464231701</v>
           </cell>
           <cell r="H3">
-            <v>864.24193635727897</v>
+            <v>864.24193635556696</v>
           </cell>
           <cell r="I3">
             <v>1</v>
@@ -749,22 +749,22 @@
             <v>Effort</v>
           </cell>
           <cell r="B4">
-            <v>0.241102744985531</v>
+            <v>0.232474181361851</v>
           </cell>
           <cell r="C4">
-            <v>1.28361119871843E-2</v>
+            <v>1.0574209466082399E-2</v>
           </cell>
           <cell r="E4">
-            <v>0.217212535109334</v>
+            <v>0.21264607973250099</v>
           </cell>
           <cell r="F4">
-            <v>0.26762052940590297</v>
+            <v>0.25415114667455002</v>
           </cell>
           <cell r="G4">
-            <v>-26.7196481735715</v>
+            <v>-32.075615432813997</v>
           </cell>
           <cell r="H4">
-            <v>1702.02635150263</v>
+            <v>1702.0263515014601</v>
           </cell>
           <cell r="I4">
             <v>1</v>
@@ -778,22 +778,22 @@
             <v>Reward</v>
           </cell>
           <cell r="B5">
-            <v>2.5392618063108898</v>
+            <v>3.32261006479093</v>
           </cell>
           <cell r="C5">
-            <v>0.12268567449496499</v>
+            <v>0.15308545381529701</v>
           </cell>
           <cell r="E5">
-            <v>2.3098366184302002</v>
+            <v>3.0357167013131598</v>
           </cell>
           <cell r="F5">
-            <v>2.7914747171041401</v>
+            <v>3.6366165650024298</v>
           </cell>
           <cell r="G5">
-            <v>19.287260485033698</v>
+            <v>26.061432070861301</v>
           </cell>
           <cell r="H5">
-            <v>1035.3301170577099</v>
+            <v>1035.3301170658999</v>
           </cell>
           <cell r="I5">
             <v>1</v>
@@ -807,22 +807,22 @@
             <v>Recipient (Self vs. Other) * Effort</v>
           </cell>
           <cell r="B6">
-            <v>0.92970712729300498</v>
+            <v>0.96421029196914898</v>
           </cell>
           <cell r="C6">
-            <v>7.8733443031105202E-2</v>
+            <v>4.0828412240959497E-2</v>
           </cell>
           <cell r="E6">
-            <v>0.787519041807904</v>
+            <v>0.88741870870098505</v>
           </cell>
           <cell r="F6">
-            <v>1.09756754650036</v>
+            <v>1.0476469315146</v>
           </cell>
           <cell r="G6">
-            <v>-0.86065481629247698</v>
+            <v>-0.86071130965649001</v>
           </cell>
           <cell r="H6">
-            <v>4.5432305137183E-2</v>
+            <v>4.5432284805428901E-2</v>
           </cell>
           <cell r="I6">
             <v>1</v>
@@ -836,22 +836,22 @@
             <v>Recipient (Self vs. Other) * Reward</v>
           </cell>
           <cell r="B7">
-            <v>1.7121631952394201</v>
+            <v>1.3084892487950199</v>
           </cell>
           <cell r="C7">
-            <v>0.15161748659466001</v>
+            <v>5.7936853611146602E-2</v>
           </cell>
           <cell r="E7">
-            <v>1.43935711259194</v>
+            <v>1.1997228722303099</v>
           </cell>
           <cell r="F7">
-            <v>2.0366751110525501</v>
+            <v>1.4271163398170801</v>
           </cell>
           <cell r="G7">
-            <v>6.0727082810634796</v>
+            <v>6.0724341116423703</v>
           </cell>
           <cell r="H7">
-            <v>33.643777987382201</v>
+            <v>33.643778008118701</v>
           </cell>
           <cell r="I7">
             <v>1</v>
@@ -865,22 +865,22 @@
             <v>Effort * Reward</v>
           </cell>
           <cell r="B8">
-            <v>1.2289419330346401</v>
+            <v>1.10306584706424</v>
           </cell>
           <cell r="C8">
-            <v>6.1366350208833902E-2</v>
+            <v>4.6011636729572099E-2</v>
           </cell>
           <cell r="E8">
-            <v>1.1143643586820999</v>
+            <v>1.0164726364539101</v>
           </cell>
           <cell r="F8">
-            <v>1.3553002328224799</v>
+            <v>1.19703592533917</v>
           </cell>
           <cell r="G8">
-            <v>4.1284968207391701</v>
+            <v>2.35165552616485</v>
           </cell>
           <cell r="H8">
-            <v>10.384939269773</v>
+            <v>10.3849394509425</v>
           </cell>
           <cell r="I8">
             <v>1</v>
@@ -894,22 +894,22 @@
             <v>Recipient (Self vs. Other) * Effort * Reward</v>
           </cell>
           <cell r="B9">
-            <v>0.80563453383482597</v>
+            <v>0.89757226843789195</v>
           </cell>
           <cell r="C9">
-            <v>6.6294364529891597E-2</v>
+            <v>3.6930262211468702E-2</v>
           </cell>
           <cell r="E9">
-            <v>0.68563672848478496</v>
+            <v>0.82803190189735798</v>
           </cell>
           <cell r="F9">
-            <v>0.94663394643634702</v>
+            <v>0.97295282370486502</v>
           </cell>
           <cell r="G9">
-            <v>-2.6264347245836501</v>
+            <v>-2.6263862066087502</v>
           </cell>
           <cell r="H9">
-            <v>6.9503564812903296</v>
+            <v>6.9503564012675296</v>
           </cell>
           <cell r="I9">
             <v>1</v>
@@ -1224,7 +1224,7 @@
   <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1281,23 +1281,23 @@
       </c>
       <c r="C3" s="3">
         <f>[1]Table_S1!$B$2</f>
-        <v>1.38293307945097</v>
+        <v>4.2332124013471804</v>
       </c>
       <c r="D3" s="3">
         <f>[1]Table_S1!$C$2</f>
-        <v>0.364572726052799</v>
+        <v>1.1183207635851999</v>
       </c>
       <c r="E3" s="3">
         <f>[1]Table_S1!$E$2</f>
-        <v>0.82490703802957799</v>
+        <v>2.5223276679045301</v>
       </c>
       <c r="F3" s="3">
         <f>[1]Table_S1!$F$2</f>
-        <v>2.3184477935938701</v>
+        <v>7.1045833826209304</v>
       </c>
       <c r="G3" s="3">
         <f>[1]Table_S1!$G$2</f>
-        <v>1.22981256568009</v>
+        <v>5.4620831357177604</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -1308,27 +1308,27 @@
       </c>
       <c r="C4" s="3">
         <f>[1]Table_S1!$B$3</f>
-        <v>9.3699985150734406</v>
+        <v>3.0610271345386302</v>
       </c>
       <c r="D4" s="3">
         <f>[1]Table_S1!$C$3</f>
-        <v>0.87640257657960097</v>
+        <v>0.14315586511134701</v>
       </c>
       <c r="E4" s="3">
         <f>[1]Table_S1!$E$3</f>
-        <v>7.8005320197147698</v>
+        <v>2.7929220312116101</v>
       </c>
       <c r="F4" s="3">
         <f>[1]Table_S1!$F$3</f>
-        <v>11.2552415592403</v>
+        <v>3.3548688483498301</v>
       </c>
       <c r="G4" s="3">
         <f>[1]Table_S1!$G$3</f>
-        <v>23.922217328730401</v>
+        <v>23.921658464231701</v>
       </c>
       <c r="H4" s="13">
         <f>[1]Table_S1!$H$3</f>
-        <v>864.24193635727897</v>
+        <v>864.24193635556696</v>
       </c>
       <c r="I4" s="13">
         <f>[1]Table_S1!$I$3</f>
@@ -1346,27 +1346,27 @@
       </c>
       <c r="C5" s="3">
         <f>[1]Table_S1!$B$4</f>
-        <v>0.241102744985531</v>
+        <v>0.232474181361851</v>
       </c>
       <c r="D5" s="3">
         <f>[1]Table_S1!$C$4</f>
-        <v>1.28361119871843E-2</v>
+        <v>1.0574209466082399E-2</v>
       </c>
       <c r="E5" s="3">
         <f>[1]Table_S1!$E$4</f>
-        <v>0.217212535109334</v>
+        <v>0.21264607973250099</v>
       </c>
       <c r="F5" s="3">
         <f>[1]Table_S1!$F$4</f>
-        <v>0.26762052940590297</v>
+        <v>0.25415114667455002</v>
       </c>
       <c r="G5" s="3">
         <f>[1]Table_S1!$G$4</f>
-        <v>-26.7196481735715</v>
+        <v>-32.075615432813997</v>
       </c>
       <c r="H5" s="13">
         <f>[1]Table_S1!$H$4</f>
-        <v>1702.02635150263</v>
+        <v>1702.0263515014601</v>
       </c>
       <c r="I5" s="13">
         <f>[1]Table_S1!$I$4</f>
@@ -1387,27 +1387,27 @@
       </c>
       <c r="C6" s="3">
         <f>[1]Table_S1!$B$5</f>
-        <v>2.5392618063108898</v>
+        <v>3.32261006479093</v>
       </c>
       <c r="D6" s="3">
         <f>[1]Table_S1!$C$5</f>
-        <v>0.12268567449496499</v>
+        <v>0.15308545381529701</v>
       </c>
       <c r="E6" s="3">
         <f>[1]Table_S1!$E$5</f>
-        <v>2.3098366184302002</v>
+        <v>3.0357167013131598</v>
       </c>
       <c r="F6" s="3">
         <f>[1]Table_S1!$F$5</f>
-        <v>2.7914747171041401</v>
+        <v>3.6366165650024298</v>
       </c>
       <c r="G6" s="3">
         <f>[1]Table_S1!$G$5</f>
-        <v>19.287260485033698</v>
+        <v>26.061432070861301</v>
       </c>
       <c r="H6" s="13">
         <f>[1]Table_S1!$H$5</f>
-        <v>1035.3301170577099</v>
+        <v>1035.3301170658999</v>
       </c>
       <c r="I6" s="13">
         <f>[1]Table_S1!$I$5</f>
@@ -1425,27 +1425,27 @@
       </c>
       <c r="C7" s="3">
         <f>[1]Table_S1!$B$6</f>
-        <v>0.92970712729300498</v>
+        <v>0.96421029196914898</v>
       </c>
       <c r="D7" s="3">
         <f>[1]Table_S1!$C$6</f>
-        <v>7.8733443031105202E-2</v>
+        <v>4.0828412240959497E-2</v>
       </c>
       <c r="E7" s="3">
         <f>[1]Table_S1!$E$6</f>
-        <v>0.787519041807904</v>
+        <v>0.88741870870098505</v>
       </c>
       <c r="F7" s="3">
         <f>[1]Table_S1!$F$6</f>
-        <v>1.09756754650036</v>
+        <v>1.0476469315146</v>
       </c>
       <c r="G7" s="3">
         <f>[1]Table_S1!$G$6</f>
-        <v>-0.86065481629247698</v>
+        <v>-0.86071130965649001</v>
       </c>
       <c r="H7" s="13">
         <f>[1]Table_S1!$H$6</f>
-        <v>4.5432305137183E-2</v>
+        <v>4.5432284805428901E-2</v>
       </c>
       <c r="I7" s="13">
         <f>[1]Table_S1!$I$6</f>
@@ -1463,27 +1463,27 @@
       </c>
       <c r="C8" s="3">
         <f>[1]Table_S1!$B$7</f>
-        <v>1.7121631952394201</v>
+        <v>1.3084892487950199</v>
       </c>
       <c r="D8" s="3">
         <f>[1]Table_S1!$C$7</f>
-        <v>0.15161748659466001</v>
+        <v>5.7936853611146602E-2</v>
       </c>
       <c r="E8" s="3">
         <f>[1]Table_S1!$E$7</f>
-        <v>1.43935711259194</v>
+        <v>1.1997228722303099</v>
       </c>
       <c r="F8" s="3">
         <f>[1]Table_S1!$F$7</f>
-        <v>2.0366751110525501</v>
+        <v>1.4271163398170801</v>
       </c>
       <c r="G8" s="3">
         <f>[1]Table_S1!$G$7</f>
-        <v>6.0727082810634796</v>
+        <v>6.0724341116423703</v>
       </c>
       <c r="H8" s="13">
         <f>[1]Table_S1!$H$7</f>
-        <v>33.643777987382201</v>
+        <v>33.643778008118701</v>
       </c>
       <c r="I8" s="13">
         <f>[1]Table_S1!$I$7</f>
@@ -1501,27 +1501,27 @@
       </c>
       <c r="C9" s="3">
         <f>[1]Table_S1!$B$8</f>
-        <v>1.2289419330346401</v>
+        <v>1.10306584706424</v>
       </c>
       <c r="D9" s="3">
         <f>[1]Table_S1!$C$8</f>
-        <v>6.1366350208833902E-2</v>
+        <v>4.6011636729572099E-2</v>
       </c>
       <c r="E9" s="3">
         <f>[1]Table_S1!$E$8</f>
-        <v>1.1143643586820999</v>
+        <v>1.0164726364539101</v>
       </c>
       <c r="F9" s="3">
         <f>[1]Table_S1!$F$8</f>
-        <v>1.3553002328224799</v>
+        <v>1.19703592533917</v>
       </c>
       <c r="G9" s="3">
         <f>[1]Table_S1!$G$8</f>
-        <v>4.1284968207391701</v>
+        <v>2.35165552616485</v>
       </c>
       <c r="H9" s="13">
         <f>[1]Table_S1!$H$8</f>
-        <v>10.384939269773</v>
+        <v>10.3849394509425</v>
       </c>
       <c r="I9" s="13">
         <f>[1]Table_S1!$I$8</f>
@@ -1539,27 +1539,27 @@
       </c>
       <c r="C10" s="6">
         <f>[1]Table_S1!$B$9</f>
-        <v>0.80563453383482597</v>
+        <v>0.89757226843789195</v>
       </c>
       <c r="D10" s="6">
         <f>[1]Table_S1!$C$9</f>
-        <v>6.6294364529891597E-2</v>
+        <v>3.6930262211468702E-2</v>
       </c>
       <c r="E10" s="6">
         <f>[1]Table_S1!$E$9</f>
-        <v>0.68563672848478496</v>
+        <v>0.82803190189735798</v>
       </c>
       <c r="F10" s="6">
         <f>[1]Table_S1!$F$9</f>
-        <v>0.94663394643634702</v>
+        <v>0.97295282370486502</v>
       </c>
       <c r="G10" s="6">
         <f>[1]Table_S1!$G$9</f>
-        <v>-2.6264347245836501</v>
+        <v>-2.6263862066087502</v>
       </c>
       <c r="H10" s="14">
         <f>[1]Table_S1!$H$9</f>
-        <v>6.9503564812903296</v>
+        <v>6.9503564012675296</v>
       </c>
       <c r="I10" s="14">
         <f>[1]Table_S1!$I$9</f>
